--- a/public/template/18. tujuan sasaran renstra.xlsx
+++ b/public/template/18. tujuan sasaran renstra.xlsx
@@ -5,7 +5,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Lembar 2" sheetId="1" r:id="rId4"/>
+    <sheet name="tujuan sasaran" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -13,9 +13,23 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Alwi Mansyur</author>
+    <author>dpupr Pasangkayu</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>dpupr Pasangkayu:
+tujuan
+sasaran</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C1" authorId="0">
       <text>
         <r>
@@ -24,7 +38,7 @@
             <color indexed="8"/>
             <rFont val="Helvetica"/>
           </rPr>
-          <t>Alwi Mansyur:
+          <t>dpupr Pasangkayu:
 pisahkan dengan tanda ; (titik koma) antara indikator jika lebih dari 1 indikator</t>
         </r>
       </text>
@@ -34,12 +48,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
-  <si>
-    <t>TUJUAN</t>
-  </si>
-  <si>
-    <t>SASARAN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+  <si>
+    <t>KELOMPOK</t>
+  </si>
+  <si>
+    <t>TUJUAN/SASARAN</t>
   </si>
   <si>
     <t>INDIKATOR SASARAN</t>
@@ -48,7 +62,13 @@
     <t>KETERANGAN</t>
   </si>
   <si>
+    <t>Tujuan</t>
+  </si>
+  <si>
     <t>Meningkatkan tata kelola pemerintahan yang baik dan bersih serta layanan publik</t>
+  </si>
+  <si>
+    <t>Sasaran</t>
   </si>
   <si>
     <t>Meningkatnya kualitas layanan dasar pekerjaan umum dan penataan ruang</t>
@@ -189,11 +209,16 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -426,20 +451,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -460,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -469,19 +494,13 @@
     <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1573,17 +1592,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="55.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7578" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.9219" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3203" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
     <col min="5" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1608,190 +1626,326 @@
       <c r="B2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" ht="32.5" customHeight="1">
+      <c r="A3" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" ht="44.5" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="B3" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="C3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" ht="44.5" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" ht="20.5" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>11</v>
-      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
     <row r="5" ht="44.5" customHeight="1">
       <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" ht="20.5" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="C6" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" ht="44.5" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" ht="32.5" customHeight="1">
-      <c r="A6" t="s" s="14">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" ht="44.5" customHeight="1">
+      <c r="A8" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" ht="32.5" customHeight="1">
+      <c r="A9" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" ht="32.5" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="B9" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" ht="32.5" customHeight="1">
+      <c r="A10" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="C10" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" ht="32.5" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" ht="32.5" customHeight="1">
-      <c r="A8" t="s" s="14">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" ht="32.5" customHeight="1">
+      <c r="A12" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="12">
+      <c r="C12" t="s" s="12">
         <v>21</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" ht="32.5" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" ht="56.5" customHeight="1">
-      <c r="A10" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" ht="56.5" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32.5" customHeight="1">
-      <c r="A12" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>33</v>
       </c>
       <c r="D12" s="13"/>
     </row>
     <row r="13" ht="32.5" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" ht="32.5" customHeight="1">
-      <c r="A14" t="s" s="14">
-        <v>37</v>
+      <c r="A14" t="s" s="11">
+        <v>6</v>
       </c>
       <c r="B14" t="s" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" ht="32.5" customHeight="1">
       <c r="A15" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" ht="56.5" customHeight="1">
+      <c r="A16" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" ht="56.5" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" ht="56.5" customHeight="1">
+      <c r="A18" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" ht="56.5" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" ht="32.5" customHeight="1">
+      <c r="A20" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" ht="32.5" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" ht="32.5" customHeight="1">
+      <c r="A22" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" ht="32.5" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" ht="32.5" customHeight="1">
+      <c r="A24" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" ht="32.5" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="C25" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" ht="32.5" customHeight="1">
+      <c r="A26" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" ht="32.5" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" t="s" s="12">
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" ht="32.5" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C27" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" ht="32.35" customHeight="1">
-      <c r="A17" t="s" s="16">
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" ht="32.5" customHeight="1">
+      <c r="A28" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="B17" t="s" s="17">
+      <c r="C28" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="C17" t="s" s="17">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" ht="32.35" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" ht="32.35" customHeight="1">
+      <c r="A30" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s" s="15">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s" s="15">
+        <v>49</v>
+      </c>
+      <c r="D30" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
